--- a/7_Part 4 Graphics and tables/xlsx-files/Wege und Distanzen.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Wege und Distanzen.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>4.98</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>30.16</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>6.05</v>
+        <v>5.85</v>
       </c>
     </row>
   </sheetData>
